--- a/Protocols/New Workbook to determine std curve conc.xlsx
+++ b/Protocols/New Workbook to determine std curve conc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emlim/Documents/PhD/Ch2_Spatial_pee/Protocols/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBC5D05-8389-F84F-B4CC-BE7153238389}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EF15CD-602B-A141-B34E-6D5DE9859BD3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7860" yWindow="1060" windowWidth="27640" windowHeight="15440" xr2:uid="{F262975C-2EA1-CA43-845B-AEA0F4A1E65F}"/>
+    <workbookView xWindow="1160" yWindow="1060" windowWidth="27640" windowHeight="15440" xr2:uid="{F262975C-2EA1-CA43-845B-AEA0F4A1E65F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -403,7 +403,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.91</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -468,29 +468,30 @@
         <v>200</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C3">
         <v>0.04</v>
       </c>
       <c r="D3">
         <f>0.04+(B3*0.000001)</f>
-        <v>4.0050000000000002E-2</v>
+        <v>4.0100000000000004E-2</v>
       </c>
       <c r="E3">
         <f>A3*B3*0.000001</f>
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F6" si="0">E3/D3</f>
-        <v>0.24968789013732834</v>
+        <v>0.49875311720698251</v>
       </c>
       <c r="G3">
         <f>H3*0.25</f>
-        <v>0.22750000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="H3">
-        <v>0.91</v>
+        <f>H2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -498,29 +499,30 @@
         <v>200</v>
       </c>
       <c r="B4">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="C4">
         <v>0.04</v>
       </c>
       <c r="D4">
         <f>0.04+(B4*0.000001)</f>
-        <v>4.0100000000000004E-2</v>
+        <v>4.0399999999999998E-2</v>
       </c>
       <c r="E4">
         <f>A4*B4*0.000001</f>
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>0.49875311720698251</v>
+        <v>1.9801980198019804</v>
       </c>
       <c r="G4">
         <f>H4*1</f>
-        <v>0.91</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>0.91</v>
+        <f>H3</f>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -528,29 +530,30 @@
         <v>200</v>
       </c>
       <c r="B5">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="C5">
         <v>0.04</v>
       </c>
       <c r="D5">
         <f>0.04+(B5*0.000001)</f>
-        <v>4.0300000000000002E-2</v>
+        <v>4.0800000000000003E-2</v>
       </c>
       <c r="E5">
         <f>A5*B5*0.000001</f>
-        <v>0.06</v>
+        <v>0.16</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>1.4888337468982629</v>
+        <v>3.9215686274509802</v>
       </c>
       <c r="G5">
         <f>H5*2</f>
-        <v>1.82</v>
+        <v>4</v>
       </c>
       <c r="H5">
-        <v>0.91</v>
+        <f>H4</f>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -558,29 +561,30 @@
         <v>200</v>
       </c>
       <c r="B6">
-        <v>600</v>
+        <v>1400</v>
       </c>
       <c r="C6">
         <v>0.04</v>
       </c>
       <c r="D6">
         <f>0.04+(B6*0.000001)</f>
-        <v>4.0600000000000004E-2</v>
+        <v>4.1399999999999999E-2</v>
       </c>
       <c r="E6">
         <f>A6*B6*0.000001</f>
-        <v>0.12</v>
+        <v>0.27999999999999997</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>2.9556650246305414</v>
+        <v>6.7632850241545892</v>
       </c>
       <c r="G6">
         <f>H6*3</f>
-        <v>2.73</v>
+        <v>6</v>
       </c>
       <c r="H6">
-        <v>0.91</v>
+        <f>H5</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
